--- a/Programs/Lab 2/Lab2PrepTO/SimplisticProfile.xlsx
+++ b/Programs/Lab 2/Lab2PrepTO/SimplisticProfile.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\VSCode\Programs\Lab 2\SimplisticRampStepper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\VSCode\Programs\Lab 2\Lab2PrepTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AB9CF6E4-E7E2-4793-B7D8-7455E2596088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0CB04B-9C0B-475C-9187-E631413186AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimplisticProfile" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">SimplisticProfile!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">SimplisticProfile!$A$2:$A$51</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">SimplisticProfile!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">SimplisticProfile!$B$2:$B$51</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -46,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,37 +592,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1004,6 +968,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>  Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1069,6 +1088,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>  Speed (steps/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2049,11 +2123,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
